--- a/meta_stra_framwork/result/jiang/expre.xlsx
+++ b/meta_stra_framwork/result/jiang/expre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>expression</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close_EMA_15#2#1&amp;trend*close_EMA_50#2#1&amp;trend*MACD#0#1&amp;thre*close#close_shift_4#1&amp;diff*K#40#1&amp;thre&amp;HS', 'MACD#0#0&amp;thre+K#40#0&amp;thre&amp;HS']</t>
-  </si>
-  <si>
-    <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close_EMA_15#2#1&amp;trend*close_EMA_25#2#1&amp;trend*MACD#0#1&amp;thre*close#close_shift_8#1&amp;diff*K#40#1&amp;thre&amp;HS', 'MACD#0#0&amp;thre+K#40#0&amp;thre&amp;HS']</t>
   </si>
 </sst>
 </file>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.338</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -434,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.338</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -445,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.338</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -456,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>1.052</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -467,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.293</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -478,7 +475,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.337</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -489,18 +486,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>1.348</v>
       </c>
     </row>
   </sheetData>
